--- a/Data-Sharing-Policies_2016-10-31.xlsx
+++ b/Data-Sharing-Policies_2016-10-31.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="1059">
   <si>
     <t>Journal</t>
   </si>
@@ -3825,7 +3825,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4319,13 +4319,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S840"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="P255" sqref="P255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4396,7 +4397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
         <v>43</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>70</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
         <v>74</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="27" t="s">
         <v>78</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>82</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
         <v>85</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
         <v>88</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
         <v>91</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
         <v>95</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27" t="s">
         <v>99</v>
       </c>
@@ -5062,7 +5063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
         <v>103</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
         <v>107</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
         <v>109</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
         <v>112</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
         <v>116</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
         <v>121</v>
       </c>
@@ -5400,7 +5401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27" t="s">
         <v>124</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="27" t="s">
         <v>128</v>
       </c>
@@ -5513,7 +5514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="27" t="s">
         <v>131</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="27" t="s">
         <v>135</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="27" t="s">
         <v>138</v>
       </c>
@@ -5682,7 +5683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="27" t="s">
         <v>141</v>
       </c>
@@ -5739,7 +5740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="27" t="s">
         <v>144</v>
       </c>
@@ -5796,7 +5797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="27" t="s">
         <v>148</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="27" t="s">
         <v>157</v>
       </c>
@@ -6073,6 +6074,9 @@
       <c r="O31" s="27" t="s">
         <v>39</v>
       </c>
+      <c r="P31" s="51" t="s">
+        <v>56</v>
+      </c>
       <c r="Q31" s="27" t="s">
         <v>28</v>
       </c>
@@ -6083,7 +6087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="27" t="s">
         <v>164</v>
       </c>
@@ -6139,7 +6143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="27" t="s">
         <v>167</v>
       </c>
@@ -6195,7 +6199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="27" t="s">
         <v>170</v>
       </c>
@@ -6251,7 +6255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="27" t="s">
         <v>172</v>
       </c>
@@ -6310,7 +6314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
         <v>175</v>
       </c>
@@ -6367,7 +6371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="27" t="s">
         <v>179</v>
       </c>
@@ -6424,7 +6428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
         <v>182</v>
       </c>
@@ -6480,7 +6484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="27" t="s">
         <v>186</v>
       </c>
@@ -6537,7 +6541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="27" t="s">
         <v>189</v>
       </c>
@@ -6593,7 +6597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="27" t="s">
         <v>192</v>
       </c>
@@ -6649,7 +6653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="27" t="s">
         <v>195</v>
       </c>
@@ -6823,7 +6827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="27" t="s">
         <v>203</v>
       </c>
@@ -6880,7 +6884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="27" t="s">
         <v>206</v>
       </c>
@@ -6936,7 +6940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="27" t="s">
         <v>210</v>
       </c>
@@ -6992,7 +6996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="27" t="s">
         <v>213</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
         <v>217</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="27" t="s">
         <v>221</v>
       </c>
@@ -7161,7 +7165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="27" t="s">
         <v>224</v>
       </c>
@@ -7217,7 +7221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="27" t="s">
         <v>228</v>
       </c>
@@ -7274,7 +7278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27" t="s">
         <v>231</v>
       </c>
@@ -7330,7 +7334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27" t="s">
         <v>233</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="27" t="s">
         <v>237</v>
       </c>
@@ -7446,7 +7450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="27" t="s">
         <v>240</v>
       </c>
@@ -7502,7 +7506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="27" t="s">
         <v>243</v>
       </c>
@@ -7558,7 +7562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="27" t="s">
         <v>245</v>
       </c>
@@ -7614,7 +7618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="27" t="s">
         <v>248</v>
       </c>
@@ -7670,7 +7674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
         <v>250</v>
       </c>
@@ -7726,7 +7730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="27" t="s">
         <v>253</v>
       </c>
@@ -7782,7 +7786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>256</v>
       </c>
@@ -7838,7 +7842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="27" t="s">
         <v>258</v>
       </c>
@@ -7894,7 +7898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="27" t="s">
         <v>261</v>
       </c>
@@ -7950,7 +7954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="27" t="s">
         <v>264</v>
       </c>
@@ -8009,7 +8013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="27" t="s">
         <v>266</v>
       </c>
@@ -8065,7 +8069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="27" t="s">
         <v>269</v>
       </c>
@@ -8180,7 +8184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="27" t="s">
         <v>273</v>
       </c>
@@ -8236,7 +8240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="27" t="s">
         <v>275</v>
       </c>
@@ -8292,7 +8296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="27" t="s">
         <v>278</v>
       </c>
@@ -8407,7 +8411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="27" t="s">
         <v>284</v>
       </c>
@@ -8463,7 +8467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="27" t="s">
         <v>288</v>
       </c>
@@ -8519,7 +8523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="27" t="s">
         <v>291</v>
       </c>
@@ -8575,7 +8579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="27" t="s">
         <v>294</v>
       </c>
@@ -8631,7 +8635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="27" t="s">
         <v>298</v>
       </c>
@@ -8688,7 +8692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
         <v>302</v>
       </c>
@@ -8744,7 +8748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="27" t="s">
         <v>305</v>
       </c>
@@ -8800,7 +8804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="27" t="s">
         <v>308</v>
       </c>
@@ -8856,7 +8860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="27" t="s">
         <v>311</v>
       </c>
@@ -8913,7 +8917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="27" t="s">
         <v>314</v>
       </c>
@@ -8970,7 +8974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="27" t="s">
         <v>317</v>
       </c>
@@ -9439,7 +9443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="27" t="s">
         <v>342</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="27" t="s">
         <v>357</v>
       </c>
@@ -9849,7 +9853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
         <v>364</v>
       </c>
@@ -9905,7 +9909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="27" t="s">
         <v>367</v>
       </c>
@@ -9962,7 +9966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="27" t="s">
         <v>369</v>
       </c>
@@ -10018,7 +10022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="27" t="s">
         <v>372</v>
       </c>
@@ -10077,7 +10081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
         <v>375</v>
       </c>
@@ -10193,7 +10197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="27" t="s">
         <v>381</v>
       </c>
@@ -10250,7 +10254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="27" t="s">
         <v>385</v>
       </c>
@@ -10306,7 +10310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="27" t="s">
         <v>388</v>
       </c>
@@ -10362,7 +10366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
         <v>392</v>
       </c>
@@ -10418,7 +10422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="27" t="s">
         <v>395</v>
       </c>
@@ -10475,7 +10479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="27" t="s">
         <v>398</v>
       </c>
@@ -10531,7 +10535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="27" t="s">
         <v>401</v>
       </c>
@@ -10587,7 +10591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="27" t="s">
         <v>404</v>
       </c>
@@ -10644,7 +10648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="27" t="s">
         <v>407</v>
       </c>
@@ -10760,7 +10764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="27" t="s">
         <v>413</v>
       </c>
@@ -10816,7 +10820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="27" t="s">
         <v>416</v>
       </c>
@@ -10872,7 +10876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="27" t="s">
         <v>419</v>
       </c>
@@ -10928,7 +10932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="27" t="s">
         <v>423</v>
       </c>
@@ -10985,7 +10989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="27" t="s">
         <v>426</v>
       </c>
@@ -11042,7 +11046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="27" t="s">
         <v>430</v>
       </c>
@@ -11099,7 +11103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="27" t="s">
         <v>433</v>
       </c>
@@ -11156,7 +11160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="27" t="s">
         <v>436</v>
       </c>
@@ -11259,6 +11263,9 @@
       <c r="O122" s="27" t="s">
         <v>39</v>
       </c>
+      <c r="P122" s="51" t="s">
+        <v>56</v>
+      </c>
       <c r="Q122" s="27" t="s">
         <v>28</v>
       </c>
@@ -11269,7 +11276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="27" t="s">
         <v>443</v>
       </c>
@@ -11325,7 +11332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="27" t="s">
         <v>446</v>
       </c>
@@ -11382,7 +11389,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="27" t="s">
         <v>449</v>
       </c>
@@ -11441,7 +11448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="27" t="s">
         <v>452</v>
       </c>
@@ -11497,7 +11504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="27" t="s">
         <v>455</v>
       </c>
@@ -11554,7 +11561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="27" t="s">
         <v>458</v>
       </c>
@@ -11611,7 +11618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="27" t="s">
         <v>461</v>
       </c>
@@ -11667,7 +11674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="27" t="s">
         <v>464</v>
       </c>
@@ -11724,7 +11731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="27" t="s">
         <v>467</v>
       </c>
@@ -11781,7 +11788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="27" t="s">
         <v>471</v>
       </c>
@@ -11837,7 +11844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="27" t="s">
         <v>474</v>
       </c>
@@ -11894,7 +11901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="27" t="s">
         <v>477</v>
       </c>
@@ -11950,7 +11957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="27" t="s">
         <v>481</v>
       </c>
@@ -12007,7 +12014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="27" t="s">
         <v>484</v>
       </c>
@@ -12064,7 +12071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="27" t="s">
         <v>488</v>
       </c>
@@ -12120,7 +12127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="27" t="s">
         <v>491</v>
       </c>
@@ -12177,7 +12184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="27" t="s">
         <v>494</v>
       </c>
@@ -12233,7 +12240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="27" t="s">
         <v>497</v>
       </c>
@@ -12290,7 +12297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="27" t="s">
         <v>500</v>
       </c>
@@ -12346,7 +12353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="27" t="s">
         <v>503</v>
       </c>
@@ -12403,7 +12410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="27" t="s">
         <v>506</v>
       </c>
@@ -12459,7 +12466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="27" t="s">
         <v>509</v>
       </c>
@@ -12515,7 +12522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="27" t="s">
         <v>512</v>
       </c>
@@ -12571,7 +12578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="27" t="s">
         <v>515</v>
       </c>
@@ -12627,7 +12634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="27" t="s">
         <v>519</v>
       </c>
@@ -12684,7 +12691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="27" t="s">
         <v>522</v>
       </c>
@@ -12740,7 +12747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="27" t="s">
         <v>526</v>
       </c>
@@ -12797,7 +12804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="27" t="s">
         <v>529</v>
       </c>
@@ -12854,7 +12861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="27" t="s">
         <v>533</v>
       </c>
@@ -12910,7 +12917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="27" t="s">
         <v>536</v>
       </c>
@@ -12966,7 +12973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="27" t="s">
         <v>539</v>
       </c>
@@ -13022,7 +13029,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="27" t="s">
         <v>542</v>
       </c>
@@ -13078,7 +13085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="27" t="s">
         <v>545</v>
       </c>
@@ -13134,7 +13141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="27" t="s">
         <v>548</v>
       </c>
@@ -13190,7 +13197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="27" t="s">
         <v>552</v>
       </c>
@@ -13247,7 +13254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="27" t="s">
         <v>555</v>
       </c>
@@ -13303,7 +13310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="27" t="s">
         <v>559</v>
       </c>
@@ -13359,7 +13366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="27" t="s">
         <v>562</v>
       </c>
@@ -13416,7 +13423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="27" t="s">
         <v>566</v>
       </c>
@@ -13473,7 +13480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="27" t="s">
         <v>568</v>
       </c>
@@ -13529,7 +13536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="27" t="s">
         <v>571</v>
       </c>
@@ -13585,7 +13592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="27" t="s">
         <v>574</v>
       </c>
@@ -13641,7 +13648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="27" t="s">
         <v>577</v>
       </c>
@@ -13697,7 +13704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="27" t="s">
         <v>580</v>
       </c>
@@ -13754,7 +13761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="27" t="s">
         <v>583</v>
       </c>
@@ -13811,7 +13818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="27" t="s">
         <v>586</v>
       </c>
@@ -13868,7 +13875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="27" t="s">
         <v>588</v>
       </c>
@@ -13924,7 +13931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="27" t="s">
         <v>591</v>
       </c>
@@ -13981,7 +13988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="27" t="s">
         <v>594</v>
       </c>
@@ -14037,7 +14044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="27" t="s">
         <v>597</v>
       </c>
@@ -14093,7 +14100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="27" t="s">
         <v>600</v>
       </c>
@@ -14149,7 +14156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="27" t="s">
         <v>602</v>
       </c>
@@ -14205,7 +14212,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="27" t="s">
         <v>605</v>
       </c>
@@ -14262,7 +14269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="27" t="s">
         <v>608</v>
       </c>
@@ -14318,7 +14325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="27" t="s">
         <v>612</v>
       </c>
@@ -14374,7 +14381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="27" t="s">
         <v>615</v>
       </c>
@@ -14430,7 +14437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="27" t="s">
         <v>618</v>
       </c>
@@ -14486,7 +14493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="27" t="s">
         <v>622</v>
       </c>
@@ -14542,7 +14549,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="27" t="s">
         <v>626</v>
       </c>
@@ -14598,7 +14605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" s="27" t="s">
         <v>629</v>
       </c>
@@ -14654,7 +14661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" s="27" t="s">
         <v>632</v>
       </c>
@@ -14710,7 +14717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" s="27" t="s">
         <v>636</v>
       </c>
@@ -14767,7 +14774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" s="27" t="s">
         <v>639</v>
       </c>
@@ -14824,7 +14831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" s="27" t="s">
         <v>642</v>
       </c>
@@ -14880,7 +14887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="27" t="s">
         <v>645</v>
       </c>
@@ -14936,7 +14943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="27" t="s">
         <v>648</v>
       </c>
@@ -14992,7 +14999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" s="27" t="s">
         <v>651</v>
       </c>
@@ -15051,7 +15058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" s="27" t="s">
         <v>654</v>
       </c>
@@ -15107,7 +15114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" s="27" t="s">
         <v>657</v>
       </c>
@@ -15164,7 +15171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="27" t="s">
         <v>661</v>
       </c>
@@ -15220,7 +15227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" s="27" t="s">
         <v>664</v>
       </c>
@@ -15276,7 +15283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="27" t="s">
         <v>667</v>
       </c>
@@ -15332,7 +15339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="27" t="s">
         <v>670</v>
       </c>
@@ -15391,7 +15398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="27" t="s">
         <v>675</v>
       </c>
@@ -15448,7 +15455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="27" t="s">
         <v>678</v>
       </c>
@@ -15504,7 +15511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="27" t="s">
         <v>681</v>
       </c>
@@ -15560,7 +15567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="27" t="s">
         <v>684</v>
       </c>
@@ -15617,7 +15624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="27" t="s">
         <v>687</v>
       </c>
@@ -15674,7 +15681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="27" t="s">
         <v>691</v>
       </c>
@@ -15730,7 +15737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="27" t="s">
         <v>694</v>
       </c>
@@ -15787,7 +15794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" s="27" t="s">
         <v>697</v>
       </c>
@@ -15843,7 +15850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="27" t="s">
         <v>701</v>
       </c>
@@ -15899,7 +15906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="27" t="s">
         <v>704</v>
       </c>
@@ -15955,7 +15962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" s="27" t="s">
         <v>709</v>
       </c>
@@ -16011,7 +16018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="27" t="s">
         <v>712</v>
       </c>
@@ -16067,7 +16074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="27" t="s">
         <v>715</v>
       </c>
@@ -16123,7 +16130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="27" t="s">
         <v>718</v>
       </c>
@@ -16180,7 +16187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="27" t="s">
         <v>721</v>
       </c>
@@ -16298,7 +16305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="27" t="s">
         <v>728</v>
       </c>
@@ -16355,7 +16362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="27" t="s">
         <v>731</v>
       </c>
@@ -16411,7 +16418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="27" t="s">
         <v>735</v>
       </c>
@@ -16467,7 +16474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="27" t="s">
         <v>738</v>
       </c>
@@ -16523,7 +16530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="27" t="s">
         <v>741</v>
       </c>
@@ -16579,7 +16586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="27" t="s">
         <v>745</v>
       </c>
@@ -16635,7 +16642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="27" t="s">
         <v>748</v>
       </c>
@@ -16691,7 +16698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="27" t="s">
         <v>751</v>
       </c>
@@ -16748,7 +16755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="27" t="s">
         <v>754</v>
       </c>
@@ -16804,7 +16811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" s="27" t="s">
         <v>757</v>
       </c>
@@ -16860,7 +16867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" s="27" t="s">
         <v>760</v>
       </c>
@@ -16916,7 +16923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" s="27" t="s">
         <v>763</v>
       </c>
@@ -16972,7 +16979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" s="27" t="s">
         <v>765</v>
       </c>
@@ -17029,7 +17036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" s="27" t="s">
         <v>768</v>
       </c>
@@ -17085,7 +17092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="27" t="s">
         <v>771</v>
       </c>
@@ -17141,7 +17148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="27" t="s">
         <v>774</v>
       </c>
@@ -17198,7 +17205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="27" t="s">
         <v>777</v>
       </c>
@@ -17255,7 +17262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" s="27" t="s">
         <v>780</v>
       </c>
@@ -17311,7 +17318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="27" t="s">
         <v>783</v>
       </c>
@@ -17367,7 +17374,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="27" t="s">
         <v>786</v>
       </c>
@@ -17424,7 +17431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="27" t="s">
         <v>789</v>
       </c>
@@ -17480,7 +17487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="27" t="s">
         <v>792</v>
       </c>
@@ -17537,7 +17544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="27" t="s">
         <v>795</v>
       </c>
@@ -17593,7 +17600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="27" t="s">
         <v>798</v>
       </c>
@@ -17650,7 +17657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="27" t="s">
         <v>801</v>
       </c>
@@ -17707,7 +17714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="27" t="s">
         <v>805</v>
       </c>
@@ -17764,7 +17771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="27" t="s">
         <v>808</v>
       </c>
@@ -17820,7 +17827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="27" t="s">
         <v>811</v>
       </c>
@@ -17877,7 +17884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" s="27" t="s">
         <v>815</v>
       </c>
@@ -17933,7 +17940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="27" t="s">
         <v>818</v>
       </c>
@@ -18049,7 +18056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" s="27" t="s">
         <v>825</v>
       </c>
@@ -18105,7 +18112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="27" t="s">
         <v>827</v>
       </c>
@@ -18161,7 +18168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" s="27" t="s">
         <v>830</v>
       </c>
@@ -18276,7 +18283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" s="27" t="s">
         <v>836</v>
       </c>
@@ -18391,7 +18398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="27" t="s">
         <v>842</v>
       </c>
@@ -18447,7 +18454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="27" t="s">
         <v>845</v>
       </c>
@@ -18503,7 +18510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" s="27" t="s">
         <v>848</v>
       </c>
@@ -18677,7 +18684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="27" t="s">
         <v>857</v>
       </c>
@@ -18792,7 +18799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="27" t="s">
         <v>863</v>
       </c>
@@ -19025,7 +19032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="27" t="s">
         <v>874</v>
       </c>
@@ -19081,7 +19088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" s="27" t="s">
         <v>877</v>
       </c>
@@ -19137,7 +19144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="27" t="s">
         <v>880</v>
       </c>
@@ -19193,7 +19200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" s="27" t="s">
         <v>883</v>
       </c>
@@ -19249,7 +19256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="27" t="s">
         <v>886</v>
       </c>
@@ -19305,7 +19312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="27" t="s">
         <v>889</v>
       </c>
@@ -19361,7 +19368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="27" t="s">
         <v>892</v>
       </c>
@@ -19417,7 +19424,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="27" t="s">
         <v>895</v>
       </c>
@@ -19532,7 +19539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="27" t="s">
         <v>902</v>
       </c>
@@ -19647,7 +19654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" s="27" t="s">
         <v>908</v>
       </c>
@@ -19822,7 +19829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" s="27" t="s">
         <v>916</v>
       </c>
@@ -19878,7 +19885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="27" t="s">
         <v>919</v>
       </c>
@@ -19934,7 +19941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="27" t="s">
         <v>922</v>
       </c>
@@ -20108,7 +20115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" s="27" t="s">
         <v>930</v>
       </c>
@@ -20164,7 +20171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="27" t="s">
         <v>933</v>
       </c>
@@ -20279,7 +20286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="27" t="s">
         <v>939</v>
       </c>
@@ -20335,7 +20342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="27" t="s">
         <v>943</v>
       </c>
@@ -20450,7 +20457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="27" t="s">
         <v>949</v>
       </c>
@@ -20683,7 +20690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" s="27" t="s">
         <v>961</v>
       </c>
@@ -20739,7 +20746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" s="27" t="s">
         <v>964</v>
       </c>
@@ -20795,7 +20802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" s="27" t="s">
         <v>967</v>
       </c>
@@ -20913,7 +20920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293" s="27" t="s">
         <v>973</v>
       </c>
@@ -20972,7 +20979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="27" t="s">
         <v>976</v>
       </c>
@@ -21028,7 +21035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="27" t="s">
         <v>980</v>
       </c>
@@ -21084,7 +21091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" s="27" t="s">
         <v>983</v>
       </c>
@@ -21141,7 +21148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="27" t="s">
         <v>986</v>
       </c>
@@ -21197,7 +21204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="27" t="s">
         <v>990</v>
       </c>
@@ -21253,7 +21260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299" s="27" t="s">
         <v>993</v>
       </c>
@@ -21309,7 +21316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="27" t="s">
         <v>996</v>
       </c>
@@ -21365,7 +21372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="27" t="s">
         <v>999</v>
       </c>
@@ -21421,7 +21428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" s="27" t="s">
         <v>1002</v>
       </c>
@@ -21477,7 +21484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" s="27" t="s">
         <v>1005</v>
       </c>
@@ -21536,7 +21543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="27" t="s">
         <v>1008</v>
       </c>
@@ -21595,7 +21602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:19" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" s="27" t="s">
         <v>1012</v>
       </c>
@@ -21652,7 +21659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" s="27" t="s">
         <v>1014</v>
       </c>
@@ -21708,7 +21715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" s="27" t="s">
         <v>1017</v>
       </c>
@@ -21764,7 +21771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="27" t="s">
         <v>1020</v>
       </c>
@@ -21820,7 +21827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" s="27" t="s">
         <v>1023</v>
       </c>
@@ -21877,7 +21884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" s="27" t="s">
         <v>1026</v>
       </c>
@@ -21933,7 +21940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" s="27" t="s">
         <v>1030</v>
       </c>
@@ -21990,7 +21997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="27" t="s">
         <v>1033</v>
       </c>
@@ -22046,7 +22053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" s="27" t="s">
         <v>1036</v>
       </c>
@@ -22102,7 +22109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314" s="27" t="s">
         <v>1039</v>
       </c>
@@ -22158,7 +22165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" s="27" t="s">
         <v>1042</v>
       </c>
@@ -22212,7 +22219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" s="27" t="s">
         <v>1045</v>
       </c>
@@ -22268,7 +22275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="27" t="s">
         <v>1048</v>
       </c>
@@ -22325,7 +22332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" s="27" t="s">
         <v>1051</v>
       </c>
@@ -22379,7 +22386,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:19" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" s="27" t="s">
         <v>1054</v>
       </c>
@@ -22435,7 +22442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="27" t="s">
         <v>1057</v>
       </c>
@@ -22490,7 +22497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:3" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" s="54"/>
       <c r="C321">
         <f>SUM(C3:C320)</f>
@@ -24055,6 +24062,13 @@
       <c r="A840" s="54"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S321">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="B"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
     <hyperlink ref="L3" r:id="rId2"/>

--- a/Data-Sharing-Policies_2016-10-31.xlsx
+++ b/Data-Sharing-Policies_2016-10-31.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Marking Key" sheetId="1" r:id="rId1"/>
@@ -3432,7 +3432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3544,6 +3544,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4319,14 +4322,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S840"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P255" sqref="P255"/>
+      <selection pane="bottomRight" activeCell="P328" sqref="P328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4397,7 +4399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
@@ -4438,7 +4440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
         <v>43</v>
       </c>
@@ -4554,7 +4556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>70</v>
       </c>
@@ -4610,7 +4612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
         <v>74</v>
       </c>
@@ -4667,7 +4669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="27" t="s">
         <v>78</v>
       </c>
@@ -4726,7 +4728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>82</v>
       </c>
@@ -4783,7 +4785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
         <v>85</v>
       </c>
@@ -4839,7 +4841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
         <v>88</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
         <v>91</v>
       </c>
@@ -4951,7 +4953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
         <v>95</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="27" t="s">
         <v>99</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
         <v>103</v>
       </c>
@@ -5120,7 +5122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
         <v>107</v>
       </c>
@@ -5176,7 +5178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
         <v>109</v>
       </c>
@@ -5232,7 +5234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
         <v>112</v>
       </c>
@@ -5288,7 +5290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
         <v>116</v>
       </c>
@@ -5344,7 +5346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
         <v>121</v>
       </c>
@@ -5401,7 +5403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="27" t="s">
         <v>124</v>
       </c>
@@ -5458,7 +5460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="27" t="s">
         <v>128</v>
       </c>
@@ -5514,7 +5516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="27" t="s">
         <v>131</v>
       </c>
@@ -5570,7 +5572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="27" t="s">
         <v>135</v>
       </c>
@@ -5627,7 +5629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="27" t="s">
         <v>138</v>
       </c>
@@ -5683,7 +5685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="27" t="s">
         <v>141</v>
       </c>
@@ -5740,7 +5742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="27" t="s">
         <v>144</v>
       </c>
@@ -5797,7 +5799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="27" t="s">
         <v>148</v>
       </c>
@@ -5972,7 +5974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="27" t="s">
         <v>157</v>
       </c>
@@ -6087,7 +6089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="27" t="s">
         <v>164</v>
       </c>
@@ -6143,7 +6145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="27" t="s">
         <v>167</v>
       </c>
@@ -6199,7 +6201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="27" t="s">
         <v>170</v>
       </c>
@@ -6255,7 +6257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="27" t="s">
         <v>172</v>
       </c>
@@ -6314,7 +6316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
         <v>175</v>
       </c>
@@ -6371,7 +6373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="27" t="s">
         <v>179</v>
       </c>
@@ -6428,7 +6430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
         <v>182</v>
       </c>
@@ -6484,7 +6486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="27" t="s">
         <v>186</v>
       </c>
@@ -6541,7 +6543,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="27" t="s">
         <v>189</v>
       </c>
@@ -6597,7 +6599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="27" t="s">
         <v>192</v>
       </c>
@@ -6653,7 +6655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="27" t="s">
         <v>195</v>
       </c>
@@ -6827,7 +6829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="27" t="s">
         <v>203</v>
       </c>
@@ -6884,7 +6886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="27" t="s">
         <v>206</v>
       </c>
@@ -6940,7 +6942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="27" t="s">
         <v>210</v>
       </c>
@@ -6996,7 +6998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="27" t="s">
         <v>213</v>
       </c>
@@ -7052,7 +7054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
         <v>217</v>
       </c>
@@ -7108,7 +7110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="27" t="s">
         <v>221</v>
       </c>
@@ -7165,7 +7167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="27" t="s">
         <v>224</v>
       </c>
@@ -7221,7 +7223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="27" t="s">
         <v>228</v>
       </c>
@@ -7278,7 +7280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="27" t="s">
         <v>231</v>
       </c>
@@ -7334,7 +7336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="27" t="s">
         <v>233</v>
       </c>
@@ -7393,7 +7395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="27" t="s">
         <v>237</v>
       </c>
@@ -7450,7 +7452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="27" t="s">
         <v>240</v>
       </c>
@@ -7506,7 +7508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="27" t="s">
         <v>243</v>
       </c>
@@ -7562,7 +7564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="27" t="s">
         <v>245</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="27" t="s">
         <v>248</v>
       </c>
@@ -7674,7 +7676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
         <v>250</v>
       </c>
@@ -7730,7 +7732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="27" t="s">
         <v>253</v>
       </c>
@@ -7786,7 +7788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>256</v>
       </c>
@@ -7842,7 +7844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="27" t="s">
         <v>258</v>
       </c>
@@ -7898,7 +7900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="27" t="s">
         <v>261</v>
       </c>
@@ -7954,7 +7956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="27" t="s">
         <v>264</v>
       </c>
@@ -8013,7 +8015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="27" t="s">
         <v>266</v>
       </c>
@@ -8069,7 +8071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="27" t="s">
         <v>269</v>
       </c>
@@ -8184,7 +8186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="27" t="s">
         <v>273</v>
       </c>
@@ -8240,7 +8242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="27" t="s">
         <v>275</v>
       </c>
@@ -8296,7 +8298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="27" t="s">
         <v>278</v>
       </c>
@@ -8411,7 +8413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="27" t="s">
         <v>284</v>
       </c>
@@ -8467,7 +8469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="27" t="s">
         <v>288</v>
       </c>
@@ -8523,7 +8525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="27" t="s">
         <v>291</v>
       </c>
@@ -8579,7 +8581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="27" t="s">
         <v>294</v>
       </c>
@@ -8635,7 +8637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="27" t="s">
         <v>298</v>
       </c>
@@ -8692,7 +8694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
         <v>302</v>
       </c>
@@ -8748,7 +8750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="27" t="s">
         <v>305</v>
       </c>
@@ -8804,7 +8806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="27" t="s">
         <v>308</v>
       </c>
@@ -8860,7 +8862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="27" t="s">
         <v>311</v>
       </c>
@@ -8917,7 +8919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="27" t="s">
         <v>314</v>
       </c>
@@ -8974,7 +8976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="27" t="s">
         <v>317</v>
       </c>
@@ -9443,7 +9445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="27" t="s">
         <v>342</v>
       </c>
@@ -9738,7 +9740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="27" t="s">
         <v>357</v>
       </c>
@@ -9853,7 +9855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
         <v>364</v>
       </c>
@@ -9909,7 +9911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="14" x14ac:dyDescent="0.2">
       <c r="A99" s="27" t="s">
         <v>367</v>
       </c>
@@ -9966,7 +9968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="27" t="s">
         <v>369</v>
       </c>
@@ -10022,7 +10024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="27" t="s">
         <v>372</v>
       </c>
@@ -10081,7 +10083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
         <v>375</v>
       </c>
@@ -10197,7 +10199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="27" t="s">
         <v>381</v>
       </c>
@@ -10254,7 +10256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="27" t="s">
         <v>385</v>
       </c>
@@ -10310,7 +10312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="27" t="s">
         <v>388</v>
       </c>
@@ -10366,7 +10368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
         <v>392</v>
       </c>
@@ -10422,7 +10424,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="27" t="s">
         <v>395</v>
       </c>
@@ -10479,7 +10481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="27" t="s">
         <v>398</v>
       </c>
@@ -10535,7 +10537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="27" t="s">
         <v>401</v>
       </c>
@@ -10591,7 +10593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="27" t="s">
         <v>404</v>
       </c>
@@ -10648,7 +10650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="27" t="s">
         <v>407</v>
       </c>
@@ -10764,7 +10766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="27" t="s">
         <v>413</v>
       </c>
@@ -10820,7 +10822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="27" t="s">
         <v>416</v>
       </c>
@@ -10876,7 +10878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="27" t="s">
         <v>419</v>
       </c>
@@ -10932,7 +10934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="27" t="s">
         <v>423</v>
       </c>
@@ -10989,7 +10991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="27" t="s">
         <v>426</v>
       </c>
@@ -11046,7 +11048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="27" t="s">
         <v>430</v>
       </c>
@@ -11103,7 +11105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="27" t="s">
         <v>433</v>
       </c>
@@ -11160,7 +11162,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="27" t="s">
         <v>436</v>
       </c>
@@ -11276,7 +11278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="27" t="s">
         <v>443</v>
       </c>
@@ -11332,7 +11334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="27" t="s">
         <v>446</v>
       </c>
@@ -11389,7 +11391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="27" t="s">
         <v>449</v>
       </c>
@@ -11448,7 +11450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="27" t="s">
         <v>452</v>
       </c>
@@ -11504,7 +11506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="27" t="s">
         <v>455</v>
       </c>
@@ -11561,7 +11563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="27" t="s">
         <v>458</v>
       </c>
@@ -11618,7 +11620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="27" t="s">
         <v>461</v>
       </c>
@@ -11674,7 +11676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="27" t="s">
         <v>464</v>
       </c>
@@ -11731,7 +11733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="27" t="s">
         <v>467</v>
       </c>
@@ -11788,7 +11790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="27" t="s">
         <v>471</v>
       </c>
@@ -11844,7 +11846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="27" t="s">
         <v>474</v>
       </c>
@@ -11901,7 +11903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="27" t="s">
         <v>477</v>
       </c>
@@ -11957,7 +11959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="27" t="s">
         <v>481</v>
       </c>
@@ -12014,7 +12016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="27" t="s">
         <v>484</v>
       </c>
@@ -12071,7 +12073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="27" t="s">
         <v>488</v>
       </c>
@@ -12127,7 +12129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="27" t="s">
         <v>491</v>
       </c>
@@ -12184,7 +12186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="27" t="s">
         <v>494</v>
       </c>
@@ -12240,7 +12242,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="27" t="s">
         <v>497</v>
       </c>
@@ -12297,7 +12299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="27" t="s">
         <v>500</v>
       </c>
@@ -12353,7 +12355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="27" t="s">
         <v>503</v>
       </c>
@@ -12410,7 +12412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="27" t="s">
         <v>506</v>
       </c>
@@ -12466,7 +12468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="27" t="s">
         <v>509</v>
       </c>
@@ -12522,7 +12524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="27" t="s">
         <v>512</v>
       </c>
@@ -12578,7 +12580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="27" t="s">
         <v>515</v>
       </c>
@@ -12634,7 +12636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="27" t="s">
         <v>519</v>
       </c>
@@ -12691,7 +12693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="27" t="s">
         <v>522</v>
       </c>
@@ -12747,7 +12749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="27" t="s">
         <v>526</v>
       </c>
@@ -12804,7 +12806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="27" t="s">
         <v>529</v>
       </c>
@@ -12861,7 +12863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="27" t="s">
         <v>533</v>
       </c>
@@ -12917,7 +12919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="27" t="s">
         <v>536</v>
       </c>
@@ -12973,7 +12975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="27" t="s">
         <v>539</v>
       </c>
@@ -13029,7 +13031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="27" t="s">
         <v>542</v>
       </c>
@@ -13085,7 +13087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="27" t="s">
         <v>545</v>
       </c>
@@ -13141,7 +13143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="27" t="s">
         <v>548</v>
       </c>
@@ -13197,7 +13199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="27" t="s">
         <v>552</v>
       </c>
@@ -13254,7 +13256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="27" t="s">
         <v>555</v>
       </c>
@@ -13310,7 +13312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="27" t="s">
         <v>559</v>
       </c>
@@ -13366,7 +13368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="27" t="s">
         <v>562</v>
       </c>
@@ -13423,7 +13425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="27" t="s">
         <v>566</v>
       </c>
@@ -13480,7 +13482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="27" t="s">
         <v>568</v>
       </c>
@@ -13536,7 +13538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="27" t="s">
         <v>571</v>
       </c>
@@ -13592,7 +13594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="27" t="s">
         <v>574</v>
       </c>
@@ -13648,7 +13650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="27" t="s">
         <v>577</v>
       </c>
@@ -13704,7 +13706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="27" t="s">
         <v>580</v>
       </c>
@@ -13761,7 +13763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="27" t="s">
         <v>583</v>
       </c>
@@ -13818,7 +13820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="27" t="s">
         <v>586</v>
       </c>
@@ -13875,7 +13877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="27" t="s">
         <v>588</v>
       </c>
@@ -13931,7 +13933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="27" t="s">
         <v>591</v>
       </c>
@@ -13988,7 +13990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="27" t="s">
         <v>594</v>
       </c>
@@ -14044,7 +14046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="27" t="s">
         <v>597</v>
       </c>
@@ -14100,7 +14102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="27" t="s">
         <v>600</v>
       </c>
@@ -14156,7 +14158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="27" t="s">
         <v>602</v>
       </c>
@@ -14212,7 +14214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="27" t="s">
         <v>605</v>
       </c>
@@ -14269,7 +14271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="27" t="s">
         <v>608</v>
       </c>
@@ -14325,7 +14327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="27" t="s">
         <v>612</v>
       </c>
@@ -14381,7 +14383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="27" t="s">
         <v>615</v>
       </c>
@@ -14437,7 +14439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="27" t="s">
         <v>618</v>
       </c>
@@ -14493,7 +14495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="27" t="s">
         <v>622</v>
       </c>
@@ -14549,7 +14551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="27" t="s">
         <v>626</v>
       </c>
@@ -14605,7 +14607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="27" t="s">
         <v>629</v>
       </c>
@@ -14661,7 +14663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="27" t="s">
         <v>632</v>
       </c>
@@ -14717,7 +14719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="27" t="s">
         <v>636</v>
       </c>
@@ -14774,7 +14776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A185" s="27" t="s">
         <v>639</v>
       </c>
@@ -14831,7 +14833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="27" t="s">
         <v>642</v>
       </c>
@@ -14887,7 +14889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="27" t="s">
         <v>645</v>
       </c>
@@ -14943,7 +14945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="27" t="s">
         <v>648</v>
       </c>
@@ -14999,7 +15001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="27" t="s">
         <v>651</v>
       </c>
@@ -15058,7 +15060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="27" t="s">
         <v>654</v>
       </c>
@@ -15114,7 +15116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="27" t="s">
         <v>657</v>
       </c>
@@ -15171,7 +15173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="27" t="s">
         <v>661</v>
       </c>
@@ -15227,7 +15229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="27" t="s">
         <v>664</v>
       </c>
@@ -15283,7 +15285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="27" t="s">
         <v>667</v>
       </c>
@@ -15339,7 +15341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="27" t="s">
         <v>670</v>
       </c>
@@ -15398,7 +15400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="27" t="s">
         <v>675</v>
       </c>
@@ -15455,7 +15457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="27" t="s">
         <v>678</v>
       </c>
@@ -15511,7 +15513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="27" t="s">
         <v>681</v>
       </c>
@@ -15567,7 +15569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="27" t="s">
         <v>684</v>
       </c>
@@ -15624,7 +15626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="27" t="s">
         <v>687</v>
       </c>
@@ -15681,7 +15683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="27" t="s">
         <v>691</v>
       </c>
@@ -15737,7 +15739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="27" t="s">
         <v>694</v>
       </c>
@@ -15794,7 +15796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="27" t="s">
         <v>697</v>
       </c>
@@ -15850,7 +15852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="27" t="s">
         <v>701</v>
       </c>
@@ -15906,7 +15908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="27" t="s">
         <v>704</v>
       </c>
@@ -15962,7 +15964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="27" t="s">
         <v>709</v>
       </c>
@@ -16018,7 +16020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="27" t="s">
         <v>712</v>
       </c>
@@ -16074,7 +16076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="27" t="s">
         <v>715</v>
       </c>
@@ -16130,7 +16132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="27" t="s">
         <v>718</v>
       </c>
@@ -16187,7 +16189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="27" t="s">
         <v>721</v>
       </c>
@@ -16305,7 +16307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="27" t="s">
         <v>728</v>
       </c>
@@ -16362,7 +16364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="27" t="s">
         <v>731</v>
       </c>
@@ -16418,7 +16420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="27" t="s">
         <v>735</v>
       </c>
@@ -16474,7 +16476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="27" t="s">
         <v>738</v>
       </c>
@@ -16530,7 +16532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="27" t="s">
         <v>741</v>
       </c>
@@ -16586,7 +16588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="27" t="s">
         <v>745</v>
       </c>
@@ -16642,7 +16644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="27" t="s">
         <v>748</v>
       </c>
@@ -16698,7 +16700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="27" t="s">
         <v>751</v>
       </c>
@@ -16755,7 +16757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="27" t="s">
         <v>754</v>
       </c>
@@ -16811,7 +16813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="27" t="s">
         <v>757</v>
       </c>
@@ -16867,7 +16869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="27" t="s">
         <v>760</v>
       </c>
@@ -16923,7 +16925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="27" t="s">
         <v>763</v>
       </c>
@@ -16979,7 +16981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="27" t="s">
         <v>765</v>
       </c>
@@ -17036,7 +17038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="27" t="s">
         <v>768</v>
       </c>
@@ -17092,7 +17094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="27" t="s">
         <v>771</v>
       </c>
@@ -17148,7 +17150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="27" t="s">
         <v>774</v>
       </c>
@@ -17205,7 +17207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="27" t="s">
         <v>777</v>
       </c>
@@ -17262,7 +17264,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="27" t="s">
         <v>780</v>
       </c>
@@ -17318,7 +17320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="27" t="s">
         <v>783</v>
       </c>
@@ -17374,7 +17376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="27" t="s">
         <v>786</v>
       </c>
@@ -17431,7 +17433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="27" t="s">
         <v>789</v>
       </c>
@@ -17487,7 +17489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="27" t="s">
         <v>792</v>
       </c>
@@ -17544,7 +17546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="27" t="s">
         <v>795</v>
       </c>
@@ -17600,7 +17602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="27" t="s">
         <v>798</v>
       </c>
@@ -17657,7 +17659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="27" t="s">
         <v>801</v>
       </c>
@@ -17714,7 +17716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="27" t="s">
         <v>805</v>
       </c>
@@ -17771,7 +17773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="27" t="s">
         <v>808</v>
       </c>
@@ -17827,7 +17829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="27" t="s">
         <v>811</v>
       </c>
@@ -17884,7 +17886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="27" t="s">
         <v>815</v>
       </c>
@@ -17940,7 +17942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="27" t="s">
         <v>818</v>
       </c>
@@ -18056,7 +18058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="27" t="s">
         <v>825</v>
       </c>
@@ -18112,7 +18114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="27" t="s">
         <v>827</v>
       </c>
@@ -18168,7 +18170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="27" t="s">
         <v>830</v>
       </c>
@@ -18283,7 +18285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="27" t="s">
         <v>836</v>
       </c>
@@ -18398,7 +18400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="27" t="s">
         <v>842</v>
       </c>
@@ -18454,7 +18456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="27" t="s">
         <v>845</v>
       </c>
@@ -18510,7 +18512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="27" t="s">
         <v>848</v>
       </c>
@@ -18684,7 +18686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="27" t="s">
         <v>857</v>
       </c>
@@ -18799,7 +18801,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="27" t="s">
         <v>863</v>
       </c>
@@ -19032,7 +19034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="27" t="s">
         <v>874</v>
       </c>
@@ -19088,7 +19090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="27" t="s">
         <v>877</v>
       </c>
@@ -19144,7 +19146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="27" t="s">
         <v>880</v>
       </c>
@@ -19200,7 +19202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="27" t="s">
         <v>883</v>
       </c>
@@ -19256,7 +19258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="27" t="s">
         <v>886</v>
       </c>
@@ -19312,7 +19314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="27" t="s">
         <v>889</v>
       </c>
@@ -19368,7 +19370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="27" t="s">
         <v>892</v>
       </c>
@@ -19424,7 +19426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="27" t="s">
         <v>895</v>
       </c>
@@ -19539,7 +19541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="27" t="s">
         <v>902</v>
       </c>
@@ -19654,7 +19656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="27" t="s">
         <v>908</v>
       </c>
@@ -19829,7 +19831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="27" t="s">
         <v>916</v>
       </c>
@@ -19885,7 +19887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="27" t="s">
         <v>919</v>
       </c>
@@ -19941,7 +19943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="27" t="s">
         <v>922</v>
       </c>
@@ -20115,7 +20117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="27" t="s">
         <v>930</v>
       </c>
@@ -20171,7 +20173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="27" t="s">
         <v>933</v>
       </c>
@@ -20286,7 +20288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="27" t="s">
         <v>939</v>
       </c>
@@ -20342,7 +20344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="27" t="s">
         <v>943</v>
       </c>
@@ -20457,7 +20459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="27" t="s">
         <v>949</v>
       </c>
@@ -20690,7 +20692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="27" t="s">
         <v>961</v>
       </c>
@@ -20746,7 +20748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="27" t="s">
         <v>964</v>
       </c>
@@ -20802,7 +20804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="27" t="s">
         <v>967</v>
       </c>
@@ -20920,7 +20922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="27" t="s">
         <v>973</v>
       </c>
@@ -20979,7 +20981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="27" t="s">
         <v>976</v>
       </c>
@@ -21035,7 +21037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="27" t="s">
         <v>980</v>
       </c>
@@ -21091,7 +21093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="27" t="s">
         <v>983</v>
       </c>
@@ -21148,7 +21150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="27" t="s">
         <v>986</v>
       </c>
@@ -21204,7 +21206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="27" t="s">
         <v>990</v>
       </c>
@@ -21260,7 +21262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="27" t="s">
         <v>993</v>
       </c>
@@ -21316,7 +21318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="27" t="s">
         <v>996</v>
       </c>
@@ -21372,7 +21374,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="27" t="s">
         <v>999</v>
       </c>
@@ -21428,7 +21430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="27" t="s">
         <v>1002</v>
       </c>
@@ -21484,7 +21486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="27" t="s">
         <v>1005</v>
       </c>
@@ -21543,7 +21545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="27" t="s">
         <v>1008</v>
       </c>
@@ -21602,7 +21604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A305" s="27" t="s">
         <v>1012</v>
       </c>
@@ -21659,7 +21661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="27" t="s">
         <v>1014</v>
       </c>
@@ -21715,7 +21717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="27" t="s">
         <v>1017</v>
       </c>
@@ -21771,7 +21773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="27" t="s">
         <v>1020</v>
       </c>
@@ -21827,7 +21829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="27" t="s">
         <v>1023</v>
       </c>
@@ -21884,7 +21886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="27" t="s">
         <v>1026</v>
       </c>
@@ -21940,7 +21942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="27" t="s">
         <v>1030</v>
       </c>
@@ -21997,7 +21999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="27" t="s">
         <v>1033</v>
       </c>
@@ -22053,7 +22055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="27" t="s">
         <v>1036</v>
       </c>
@@ -22109,7 +22111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="27" t="s">
         <v>1039</v>
       </c>
@@ -22165,7 +22167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="27" t="s">
         <v>1042</v>
       </c>
@@ -22219,7 +22221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="27" t="s">
         <v>1045</v>
       </c>
@@ -22275,7 +22277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="27" t="s">
         <v>1048</v>
       </c>
@@ -22332,7 +22334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="27" t="s">
         <v>1051</v>
       </c>
@@ -22386,7 +22388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A319" s="27" t="s">
         <v>1054</v>
       </c>
@@ -22442,7 +22444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="27" t="s">
         <v>1057</v>
       </c>
@@ -22497,7 +22499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="54"/>
       <c r="C321">
         <f>SUM(C3:C320)</f>
@@ -24062,13 +24064,6 @@
       <c r="A840" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S321">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="B"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
     <hyperlink ref="L3" r:id="rId2"/>
@@ -24391,15 +24386,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="96.5" customWidth="1"/>
+    <col min="1" max="1" width="127.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" ht="233" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
     </row>
